--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/20/seed5/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.044</v>
+        <v>-11.7662</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,16 +482,16 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.972500000000002</v>
+        <v>5.221500000000003</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.8594</v>
+        <v>-13.1476</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.6275</v>
+        <v>16.56030000000001</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.0143</v>
+        <v>9.212600000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -525,7 +525,7 @@
         <v>-8.16</v>
       </c>
       <c r="E5" t="n">
-        <v>16.5939</v>
+        <v>16.5782</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.2963</v>
+        <v>16.3122</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.680400000000002</v>
+        <v>-8.528600000000004</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -587,7 +587,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.215</v>
+        <v>-10.2936</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -610,12 +610,12 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.6363</v>
+        <v>16.6567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.80650000000001</v>
+        <v>-21.7927</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.0981</v>
+        <v>-7.140799999999996</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5665</v>
+        <v>-21.62830000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.967599999999997</v>
+        <v>6.935499999999995</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.309800000000003</v>
+        <v>-7.4079</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.92859999999998</v>
+        <v>-21.87289999999998</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.4715</v>
+        <v>-13.21029999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.713699999999992</v>
+        <v>-8.771399999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -726,7 +726,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.2128</v>
+        <v>-8.1883</v>
       </c>
       <c r="E17" t="n">
         <v>15.63</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.7384</v>
+        <v>-12.4396</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.078</v>
+        <v>-12.659</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.5944</v>
+        <v>16.56730000000001</v>
       </c>
     </row>
     <row r="22">
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.28010000000001</v>
+        <v>-13.14040000000001</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,13 +873,13 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.380300000000001</v>
+        <v>4.794900000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.659899999999999</v>
+        <v>-8.441400000000005</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,30 +887,30 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.95319999999999</v>
+        <v>-21.63659999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.515</v>
+        <v>-13.64329999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.6368</v>
+        <v>16.4905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.48469999999998</v>
+        <v>-21.70979999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.15880000000001</v>
+        <v>-13.2981</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.95520000000001</v>
+        <v>16.98880000000001</v>
       </c>
     </row>
     <row r="30">
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.65779999999999</v>
+        <v>-13.37209999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.60250000000001</v>
+        <v>-21.2886</v>
       </c>
       <c r="B31" t="n">
-        <v>4.322700000000001</v>
+        <v>4.690100000000002</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,13 +972,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.83040000000001</v>
+        <v>-21.70020000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.3395</v>
+        <v>-13.072</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.10760000000002</v>
+        <v>17.04680000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.846000000000002</v>
+        <v>8.653400000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.1676</v>
+        <v>-20.1192</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,10 +1049,10 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.293900000000001</v>
+        <v>-7.151500000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>16.7594</v>
+        <v>16.98950000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.6999</v>
+        <v>8.560400000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.19779999999999</v>
+        <v>-18.93249999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.781700000000001</v>
+        <v>8.884699999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.8971</v>
+        <v>15.77769999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.876699999999992</v>
+        <v>8.746599999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.704300000000002</v>
+        <v>-9.007299999999997</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.85389999999999</v>
+        <v>-14.00499999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.533099999999996</v>
+        <v>6.720899999999995</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.68890000000001</v>
+        <v>-21.81100000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.3738</v>
+        <v>-12.3457</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.7627</v>
+        <v>16.7022</v>
       </c>
     </row>
     <row r="48">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3432</v>
+        <v>5.233400000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1341,12 +1341,12 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.33300000000001</v>
+        <v>16.4403</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-22.028</v>
+        <v>-22.11879999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.7878</v>
+        <v>16.7916</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3028</v>
+        <v>-22.27529999999999</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.454</v>
+        <v>-21.71090000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>15.78880000000001</v>
+        <v>15.9272</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.130699999999995</v>
+        <v>4.731799999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,13 +1420,13 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.5848</v>
+        <v>-13.758</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.13450000000001</v>
+        <v>16.1675</v>
       </c>
     </row>
     <row r="59">
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.34700000000001</v>
+        <v>15.39770000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.18000000000001</v>
+        <v>-14.4793</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.298399999999995</v>
+        <v>-7.238999999999994</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1562,12 +1562,12 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>16.96620000000003</v>
+        <v>17.00580000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.57619999999998</v>
+        <v>-21.56539999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.020799999999993</v>
+        <v>-7.006499999999993</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.75999999999998</v>
+        <v>-21.78809999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.35880000000002</v>
+        <v>17.35310000000001</v>
       </c>
     </row>
     <row r="70">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.05700000000002</v>
+        <v>-22.11650000000002</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1664,12 +1664,12 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>17.14639999999999</v>
+        <v>17.05019999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.88329999999999</v>
+        <v>-20.11789999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.23729999999999</v>
+        <v>-11.08159999999999</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.0033</v>
+        <v>-10.938</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.929099999999998</v>
+        <v>-5.724499999999997</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1800,7 +1800,7 @@
         <v>-6.63</v>
       </c>
       <c r="E80" t="n">
-        <v>16.7599</v>
+        <v>16.7871</v>
       </c>
     </row>
     <row r="81">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.466799999999997</v>
+        <v>6.557199999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1834,15 +1834,15 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.80340000000001</v>
+        <v>16.77150000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.91179999999999</v>
+        <v>-21.88039999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.928499999999998</v>
+        <v>5.919800000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.77040000000001</v>
+        <v>16.70470000000001</v>
       </c>
     </row>
     <row r="84">
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-14.04019999999999</v>
+        <v>-13.79139999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9943</v>
+        <v>-22.1541</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.26569999999999</v>
+        <v>-10.27639999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.690600000000002</v>
+        <v>-5.626099999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.4404</v>
+        <v>-21.41960000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.41089999999999</v>
+        <v>-10.38729999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.79179999999999</v>
+        <v>-10.80399999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.26479999999999</v>
+        <v>-21.3119</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.78200000000001</v>
+        <v>-13.6806</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.35679999999999</v>
+        <v>-20.34909999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.173000000000001</v>
+        <v>4.389699999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.360499999999996</v>
+        <v>8.104399999999998</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.2869</v>
+        <v>-13.5349</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
